--- a/experiment result/64_0.5_40_zs30_kappa_lp.xlsx
+++ b/experiment result/64_0.5_40_zs30_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.02061157250926406</v>
+        <v>0.01654658278451757</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.02418531409233811</v>
+        <v>0.001346336722936237</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.03700114917008095</v>
+        <v>0.003293606969104988</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.04541993347656271</v>
+        <v>0.004358615684134536</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.02262406767683112</v>
+        <v>0.002200702916827641</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.02718571185525853</v>
+        <v>0.002158481059286762</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.02677877304032413</v>
+        <v>0.001213185197483783</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.01900029260547803</v>
+        <v>0.002691079616986542</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.03429236745055002</v>
+        <v>0.00350317861820133</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.03829854009137657</v>
+        <v>0.02136388092539071</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.03262254325589162</v>
+        <v>0.01325117329348371</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.04955852392162348</v>
+        <v>0.03696308823766294</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.02966083333064575</v>
+        <v>0.001552845064905089</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.05734730594193364</v>
+        <v>0.02079622085080973</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.03479347058192185</v>
+        <v>0.005978774090214292</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.03950084405888622</v>
+        <v>0.002225749255437826</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.04257253400614051</v>
+        <v>0.01474950666461815</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.01826403676960369</v>
+        <v>0.0007807729379830681</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.02578062901300333</v>
+        <v>0.01069570461863452</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0367893657964147</v>
+        <v>0.004573563668397221</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.02361255377040649</v>
+        <v>0.004585214175638002</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.03125613175946882</v>
+        <v>0.001525143303582931</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.03319493994230267</v>
+        <v>0.002068139175536532</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.02212080062710132</v>
+        <v>0.004108940521950229</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.01644512400009795</v>
+        <v>0.001227429041404506</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.04302315600240974</v>
+        <v>0.006864055522787456</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.03614118763643286</v>
+        <v>0.00359337216480308</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.02901139890529787</v>
+        <v>0.03245990299446898</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.03248497334204693</v>
+        <v>0.006487108558659488</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.03568051438403937</v>
+        <v>0.004436811302197424</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.01727083830678786</v>
+        <v>0.0007067671392210976</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0381498918484617</v>
+        <v>0.001884742152376568</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0477662094447644</v>
+        <v>0.004644585169045827</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.02552025049041807</v>
+        <v>0.0009835313126387182</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.02454435551278258</v>
+        <v>0.004619922792047143</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.03855933034897935</v>
+        <v>0.004807857234015256</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.02555992497916339</v>
+        <v>0.001736388275394332</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.04546583186141272</v>
+        <v>0.002215615616772986</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.02187261329294048</v>
+        <v>0.001837238671415735</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0315249819515169</v>
+        <v>0.0105903315164501</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.03973428374165125</v>
+        <v>0.01038200983479725</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.02169251918243122</v>
+        <v>0.005686153560841339</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.02755483692049101</v>
+        <v>0.005879592438560226</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.02091559676950736</v>
+        <v>0.002335111095810901</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.03275268713220982</v>
+        <v>0.002959136600741541</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.03633627389171836</v>
+        <v>0.003661977192447735</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.03470532351366792</v>
+        <v>0.009114385529035689</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.021246758515061</v>
+        <v>0.003511501272879553</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.05043932142536003</v>
+        <v>0.005625301376204534</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.01890414319656214</v>
+        <v>0.0001995367054269231</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.03239800971569385</v>
+        <v>0.004067265157451311</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0372269393123917</v>
+        <v>0.002429677780653868</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.008925315318459521</v>
+        <v>5.101926434176555e-05</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.01282850562650874</v>
+        <v>0.0006902484139978503</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.03964478988717053</v>
+        <v>0.005161756153312357</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.02791445978106342</v>
+        <v>0.006480471281601671</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.02078227859152621</v>
+        <v>0.001668485367334855</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.02548722397898612</v>
+        <v>0.004135817107002711</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.03900076612263161</v>
+        <v>0.01172842741675289</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.02299701371109139</v>
+        <v>0.0009181554073317249</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.008507396946400717</v>
+        <v>0.0001819601489311117</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.02088328240859344</v>
+        <v>0.01059846554956378</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.02814117089865113</v>
+        <v>0.004567343399857625</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.03055669826557475</v>
+        <v>0.001692950623426007</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.04451646726783789</v>
+        <v>0.01174801779454926</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0321326813744338</v>
+        <v>0.003263451274091435</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.05992214435046082</v>
+        <v>0.003223766284479142</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.02509935071358879</v>
+        <v>0.001519898041071897</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.01668737174482667</v>
+        <v>0.0006983633126841915</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.02320876935655051</v>
+        <v>0.004213486960105681</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.02924236496787018</v>
+        <v>0.003841645219102204</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0147054094783363</v>
+        <v>0.0005418874791609357</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.02435397375788607</v>
+        <v>0.002602434568140897</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.02355910584793431</v>
+        <v>0.002507344906814471</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.03687473315091851</v>
+        <v>0.02561768242124563</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.03571731844034411</v>
+        <v>0.04063236056863236</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.02051908057291655</v>
+        <v>0.0004325807134748518</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.02985565234049288</v>
+        <v>0.006153695350770923</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.03008478485459693</v>
+        <v>0.004752447613283425</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.02321485605578719</v>
+        <v>0.002086031505391365</v>
       </c>
     </row>
   </sheetData>
